--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF45387-4281-422D-841E-73FEF2AB10AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F56D88-079D-4328-A9F3-FF9F8B54B7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2310" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Feedback zu Konzept im Team</t>
+  </si>
+  <si>
+    <t>Planning next steps</t>
+  </si>
+  <si>
+    <t>Proseminar</t>
+  </si>
+  <si>
+    <t>Init frontend &amp; project, mainly adjusting skeleton</t>
   </si>
 </sst>
 </file>
@@ -538,14 +547,14 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -662,19 +671,46 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B9" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="A10" s="2">
+        <v>44280</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="8">
+        <v>44282</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8"/>
@@ -5634,7 +5670,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1000</xm:sqref>
+          <xm:sqref>C11 C2:C9 C13:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F56D88-079D-4328-A9F3-FF9F8B54B7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5A775B-ED8A-43B5-8641-7E9BA365CFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2310" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Init frontend &amp; project, mainly adjusting skeleton</t>
+  </si>
+  <si>
+    <t>Adjusting SW-Architecture to feedback</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -713,9 +716,18 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8">
+        <v>43918</v>
+      </c>
+      <c r="B12" s="7">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8"/>
@@ -5670,7 +5682,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C11 C2:C9 C13:C1000</xm:sqref>
+          <xm:sqref>C2:C9 C11:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5A775B-ED8A-43B5-8641-7E9BA365CFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EF1CF4-7CC7-43BD-83C5-CBCCEEE4B6A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2310" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -122,6 +122,9 @@
   <si>
     <t>Adjusting SW-Architecture to feedback</t>
   </si>
+  <si>
+    <t>team meeting</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -230,9 +233,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,7 +557,7 @@
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -730,9 +734,18 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8">
+        <v>44283</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8"/>
@@ -5682,7 +5695,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C9 C11:C1000</xm:sqref>
+          <xm:sqref>C2:C9 C11:C12 C14:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5696,7 +5709,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EF1CF4-7CC7-43BD-83C5-CBCCEEE4B6A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E07192-23CC-43F6-BD0D-25AD7DF709AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>team meeting</t>
+  </si>
+  <si>
+    <t>User API</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>User API &amp; lokales DB Setup</t>
+  </si>
+  <si>
+    <t>User API Tests &amp; Anpassung an andere Commits</t>
   </si>
 </sst>
 </file>
@@ -236,7 +248,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,10 +566,10 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -748,29 +760,74 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="8">
+        <v>44295</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>44296</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="8">
+        <v>44296</v>
+      </c>
+      <c r="B16" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="8">
+        <v>44238</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="8">
+        <v>44238</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8"/>
@@ -5709,7 +5766,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E07192-23CC-43F6-BD0D-25AD7DF709AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B94F9F-9809-45B4-9D1B-AD3C44981171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -137,6 +137,18 @@
   <si>
     <t>User API Tests &amp; Anpassung an andere Commits</t>
   </si>
+  <si>
+    <t>User API Update for easier implementation in frontend, also adopting tests</t>
+  </si>
+  <si>
+    <t>supporting team mates with User API and Topic API</t>
+  </si>
+  <si>
+    <t>backend team meeting</t>
+  </si>
+  <si>
+    <t>adjusting git issues</t>
+  </si>
 </sst>
 </file>
 
@@ -216,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -246,6 +258,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +579,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -574,7 +587,7 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="31.5">
@@ -675,7 +688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5">
+    <row r="8" spans="1:4">
       <c r="A8" s="9">
         <v>44273</v>
       </c>
@@ -830,29 +843,74 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="8">
+        <v>44303</v>
+      </c>
+      <c r="B23" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8"/>
@@ -5744,7 +5802,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B94F9F-9809-45B4-9D1B-AD3C44981171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765A770E-49AF-4C70-9698-D2207D2F8862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-28920" yWindow="2310" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>adjusting git issues</t>
+  </si>
+  <si>
+    <t>UserConrollerTest and fixes to user serives</t>
+  </si>
+  <si>
+    <t>UserControllerTest and small UserServiceFixes</t>
+  </si>
+  <si>
+    <t>finishing UserControllerTest</t>
   </si>
 </sst>
 </file>
@@ -579,7 +588,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -913,24 +922,60 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>44305</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>44310</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="8">
+        <v>44310</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765A770E-49AF-4C70-9698-D2207D2F8862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC900F2-926E-4499-AFAE-06D70F4E2496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2310" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t>finishing UserControllerTest</t>
+  </si>
+  <si>
+    <t>TeamRepositoryTests / Team implementation, pair programming</t>
+  </si>
+  <si>
+    <t>Backend Meeting</t>
+  </si>
+  <si>
+    <t>Room Backend Implementation</t>
+  </si>
+  <si>
+    <t>Support Cube Implementation</t>
+  </si>
+  <si>
+    <t>JourFixe</t>
+  </si>
+  <si>
+    <t>Room Frontend Implementation //Not Done when updated</t>
   </si>
 </sst>
 </file>
@@ -588,7 +606,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -965,7 +983,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8">
-        <v>44310</v>
+        <v>44315</v>
       </c>
       <c r="B27" s="7">
         <v>0.16666666666666666</v>
@@ -978,74 +996,198 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="8">
+        <v>44319</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="2">
+        <v>44319</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B33" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
+      <c r="A41" s="8">
+        <v>44325</v>
+      </c>
       <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8"/>
@@ -5855,7 +5997,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C9 C11:C12 C14:C1000</xm:sqref>
+          <xm:sqref>C2:C9 C11:C12 C14:C27 C29:C31 C33 C35:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC900F2-926E-4499-AFAE-06D70F4E2496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847677D7-C804-4606-967D-B8A98BF53BAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-28920" yWindow="2310" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -93,24 +93,6 @@
     </r>
   </si>
   <si>
-    <t>Team Vorbesprechung</t>
-  </si>
-  <si>
-    <t>Team Kennenlernen + Termin findung</t>
-  </si>
-  <si>
-    <t>Komponentendiagramm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausarbeitung </t>
-  </si>
-  <si>
-    <t>Einarbeitung des Feedbacks &amp; Formatierung des Word Dokuments</t>
-  </si>
-  <si>
-    <t>Feedback zu Konzept im Team</t>
-  </si>
-  <si>
     <t>Planning next steps</t>
   </si>
   <si>
@@ -174,7 +156,34 @@
     <t>JourFixe</t>
   </si>
   <si>
-    <t>Room Frontend Implementation //Not Done when updated</t>
+    <t>Room Overview Frontend Implementation</t>
+  </si>
+  <si>
+    <t>Room View Frontend</t>
+  </si>
+  <si>
+    <t>Review and Bugfix Game Backend Merge Request</t>
+  </si>
+  <si>
+    <t>Game View Frontend, at the end searching for a major bakend bug</t>
+  </si>
+  <si>
+    <t>Bug Fixing in Backend Game</t>
+  </si>
+  <si>
+    <t>Team Meeting, now with full team + find regular spot for jour fixe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulation </t>
+  </si>
+  <si>
+    <t>Componentdiagram</t>
+  </si>
+  <si>
+    <t>Discuss Softwareconcept in Team</t>
+  </si>
+  <si>
+    <t>Format Word Document and include team feddback</t>
   </si>
 </sst>
 </file>
@@ -606,7 +615,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -656,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -670,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -684,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -698,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -709,10 +718,10 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -726,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -740,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -754,7 +763,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
@@ -768,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -782,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -796,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -810,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -824,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -838,7 +847,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -852,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -866,7 +875,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -880,7 +889,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -894,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -908,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -922,7 +931,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -936,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -950,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -964,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -978,7 +987,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -992,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1006,7 +1015,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1020,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1034,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1048,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1062,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1076,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1090,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1104,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1118,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1132,7 +1141,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1146,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1160,7 +1169,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1174,65 +1183,148 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8">
         <v>44325</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B44" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B46" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="8">
+        <v>44330</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8"/>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847677D7-C804-4606-967D-B8A98BF53BAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76498AA8-F081-430F-A9B1-6AC1FA7DCC38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2310" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Format Word Document and include team feddback</t>
+  </si>
+  <si>
+    <t>Suppoirt Frontend Game View</t>
+  </si>
+  <si>
+    <t>Suppoirt final bug fixing</t>
   </si>
 </sst>
 </file>
@@ -612,10 +618,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1327,14 +1333,32 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="8">
+        <v>44331</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="8">
+        <v>44332</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8"/>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76498AA8-F081-430F-A9B1-6AC1FA7DCC38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1228AF8F-1B82-4B56-A5D9-8779AA5D8E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2310" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-28800" yWindow="2430" windowWidth="28800" windowHeight="15435" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -189,7 +189,13 @@
     <t>Suppoirt Frontend Game View</t>
   </si>
   <si>
-    <t>Suppoirt final bug fixing</t>
+    <t>Support final bug fixing</t>
+  </si>
+  <si>
+    <t>Fixing and combining prework from team.</t>
+  </si>
+  <si>
+    <t>Meeting to react to feedback by creating git issues and summerizing in a file. 45min Prep time included.</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -629,7 +635,7 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="31.5">
@@ -1361,14 +1367,32 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="8">
+        <v>44336</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="8">
+        <v>44344</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="8"/>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1228AF8F-1B82-4B56-A5D9-8779AA5D8E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE91145-2082-4F29-91A1-0DE019FFEB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="2430" windowWidth="28800" windowHeight="15435" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
-  <si>
-    <t>Datum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -196,6 +193,24 @@
   </si>
   <si>
     <t>Meeting to react to feedback by creating git issues and summerizing in a file. 45min Prep time included.</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Trying to confirm an issue</t>
+  </si>
+  <si>
+    <t>Room Improvement</t>
+  </si>
+  <si>
+    <t>Room Improvement, Improve Room and Game Leaving Reliability</t>
+  </si>
+  <si>
+    <t>Improve Room and Game Leaving Reliability</t>
+  </si>
+  <si>
+    <t>Write down times and manage git issues / create MR</t>
   </si>
 </sst>
 </file>
@@ -624,10 +639,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -639,17 +654,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="31.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="5">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -660,10 +675,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -674,10 +689,10 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -688,10 +703,10 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -702,10 +717,10 @@
         <v>0.15625</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -716,10 +731,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -730,10 +745,10 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -744,10 +759,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -758,10 +773,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -772,10 +787,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
@@ -786,10 +801,10 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -800,10 +815,10 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -814,10 +829,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -828,10 +843,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -842,10 +857,10 @@
         <v>0.375</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -856,10 +871,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -870,10 +885,10 @@
         <v>0.125</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -884,10 +899,10 @@
         <v>0.375</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -898,10 +913,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -912,10 +927,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -926,10 +941,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -940,10 +955,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -954,10 +969,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -968,10 +983,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -982,10 +997,10 @@
         <v>0.125</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -996,10 +1011,10 @@
         <v>0.3125</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1010,10 +1025,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1024,10 +1039,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1038,10 +1053,10 @@
         <v>0.125</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1052,10 +1067,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1066,10 +1081,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1080,10 +1095,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1094,10 +1109,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1108,10 +1123,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1122,10 +1137,10 @@
         <v>0.125</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1136,10 +1151,10 @@
         <v>0.25</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1150,10 +1165,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1164,10 +1179,10 @@
         <v>0.25</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1178,10 +1193,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1192,10 +1207,10 @@
         <v>0.125</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1206,10 +1221,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1220,10 +1235,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1234,10 +1249,10 @@
         <v>0.3125</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1248,10 +1263,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1262,10 +1277,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1276,10 +1291,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1290,10 +1305,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1304,10 +1319,10 @@
         <v>0.125</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1318,10 +1333,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1332,10 +1347,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1346,10 +1361,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1360,10 +1375,10 @@
         <v>0.125</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1374,10 +1389,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1388,56 +1403,137 @@
         <v>0.11458333333333333</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8">
+        <v>44347</v>
+      </c>
+      <c r="B55" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="8">
+        <v>44354</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
-    </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="8">
+        <v>44357</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="8">
+        <v>44357</v>
+      </c>
+      <c r="B58" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="8">
+        <v>44358</v>
+      </c>
+      <c r="B59" s="7">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="8">
+        <v>44358</v>
+      </c>
+      <c r="B60" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="8">
+        <v>44359</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8"/>
@@ -6137,7 +6233,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C9 C11:C12 C14:C27 C29:C31 C33 C35:C1000</xm:sqref>
+          <xm:sqref>C2:C9 C11:C12 C14:C27 C29:C31 C33 C35:C54 C56:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6158,10 +6254,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6169,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6177,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6185,7 +6281,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6193,7 +6289,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6201,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6209,7 +6305,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6217,7 +6313,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6225,7 +6321,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6233,7 +6329,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6241,7 +6337,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6249,7 +6345,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -8,25 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE91145-2082-4F29-91A1-0DE019FFEB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20744E71-613B-4B36-85BD-6EFF8428B59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2430" windowWidth="28800" windowHeight="15435" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -212,13 +221,38 @@
   <si>
     <t>Write down times and manage git issues / create MR</t>
   </si>
+  <si>
+    <t>Prepare Proseminar Presentation</t>
+  </si>
+  <si>
+    <t>Remove (Virtual) Users in Room</t>
+  </si>
+  <si>
+    <t>Meeting to plan "Abschlussbericht"</t>
+  </si>
+  <si>
+    <t>Clean up and Adopt MR Suggestions for Improve Room and Game Leaving Reliability</t>
+  </si>
+  <si>
+    <t>Read and Comment Contributions by teammates</t>
+  </si>
+  <si>
+    <t>Spectate Feature</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Update Timemanagment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -291,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -322,9 +356,10 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,16 +671,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1001"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -653,9 +688,9 @@
     <col min="4" max="4" width="82.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="31.5">
-      <c r="A1" s="5">
-        <v>1</v>
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="31.5">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>16</v>
@@ -667,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="9">
         <v>44256</v>
       </c>
@@ -681,7 +716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="9">
         <v>44262</v>
       </c>
@@ -695,7 +730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="9">
         <v>44263</v>
       </c>
@@ -709,7 +744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="9">
         <v>44267</v>
       </c>
@@ -722,8 +757,9 @@
       <c r="D5" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="9">
         <v>44269.3</v>
       </c>
@@ -737,7 +773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="9">
         <v>44271</v>
       </c>
@@ -751,7 +787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="9">
         <v>44273</v>
       </c>
@@ -765,7 +801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>44277</v>
       </c>
@@ -779,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>44280</v>
       </c>
@@ -793,7 +829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="8">
         <v>44282</v>
       </c>
@@ -807,7 +843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="8">
         <v>43918</v>
       </c>
@@ -821,7 +857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="8">
         <v>44283</v>
       </c>
@@ -835,7 +871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="8">
         <v>44295</v>
       </c>
@@ -849,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="8">
         <v>44296</v>
       </c>
@@ -863,7 +899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="8">
         <v>44296</v>
       </c>
@@ -1536,69 +1572,179 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B65" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B66" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="7"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B67" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B68" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="8">
+        <v>44362</v>
+      </c>
+      <c r="B69" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="8"/>
-      <c r="B70" s="7"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="8">
+        <v>44362</v>
+      </c>
+      <c r="B70" s="7">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="8"/>
-      <c r="B71" s="7"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="8">
+        <v>44362</v>
+      </c>
+      <c r="B71" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="8"/>
-      <c r="B72" s="7"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="8">
+        <v>44363</v>
+      </c>
+      <c r="B72" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="8"/>
-      <c r="B73" s="7"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B73" s="7">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="8"/>
-      <c r="B74" s="7"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B74" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="8"/>
-      <c r="B75" s="7"/>
-      <c r="D75" s="3"/>
+      <c r="A75" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B75" s="7">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="8"/>
-      <c r="B76" s="7"/>
-      <c r="D76" s="3"/>
+      <c r="A76" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B76" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="8"/>
@@ -6247,7 +6393,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20744E71-613B-4B36-85BD-6EFF8428B59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724F841A-B7E6-44D0-99EB-37196EFDEFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>Update Timemanagment</t>
+  </si>
+  <si>
+    <t>Clean Up</t>
+  </si>
+  <si>
+    <t>Review Cube MR</t>
   </si>
 </sst>
 </file>
@@ -674,10 +680,10 @@
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1747,14 +1753,32 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="8"/>
-      <c r="B77" s="7"/>
-      <c r="D77" s="3"/>
+      <c r="A77" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B77" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="8"/>
-      <c r="B78" s="7"/>
-      <c r="D78" s="3"/>
+      <c r="A78" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B78" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="8"/>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -8,25 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE91145-2082-4F29-91A1-0DE019FFEB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724F841A-B7E6-44D0-99EB-37196EFDEFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2430" windowWidth="28800" windowHeight="15435" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -212,13 +221,44 @@
   <si>
     <t>Write down times and manage git issues / create MR</t>
   </si>
+  <si>
+    <t>Prepare Proseminar Presentation</t>
+  </si>
+  <si>
+    <t>Remove (Virtual) Users in Room</t>
+  </si>
+  <si>
+    <t>Meeting to plan "Abschlussbericht"</t>
+  </si>
+  <si>
+    <t>Clean up and Adopt MR Suggestions for Improve Room and Game Leaving Reliability</t>
+  </si>
+  <si>
+    <t>Read and Comment Contributions by teammates</t>
+  </si>
+  <si>
+    <t>Spectate Feature</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Update Timemanagment</t>
+  </si>
+  <si>
+    <t>Clean Up</t>
+  </si>
+  <si>
+    <t>Review Cube MR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -291,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -322,9 +362,10 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,16 +677,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1001"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -653,9 +694,9 @@
     <col min="4" max="4" width="82.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="31.5">
-      <c r="A1" s="5">
-        <v>1</v>
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="31.5">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>16</v>
@@ -667,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="9">
         <v>44256</v>
       </c>
@@ -681,7 +722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="9">
         <v>44262</v>
       </c>
@@ -695,7 +736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="9">
         <v>44263</v>
       </c>
@@ -709,7 +750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="9">
         <v>44267</v>
       </c>
@@ -722,8 +763,9 @@
       <c r="D5" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="9">
         <v>44269.3</v>
       </c>
@@ -737,7 +779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="9">
         <v>44271</v>
       </c>
@@ -751,7 +793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="9">
         <v>44273</v>
       </c>
@@ -765,7 +807,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>44277</v>
       </c>
@@ -779,7 +821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>44280</v>
       </c>
@@ -793,7 +835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="8">
         <v>44282</v>
       </c>
@@ -807,7 +849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="8">
         <v>43918</v>
       </c>
@@ -821,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="8">
         <v>44283</v>
       </c>
@@ -835,7 +877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="8">
         <v>44295</v>
       </c>
@@ -849,7 +891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="8">
         <v>44296</v>
       </c>
@@ -863,7 +905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="8">
         <v>44296</v>
       </c>
@@ -1536,79 +1578,207 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B65" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B66" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="7"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B67" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B68" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="8">
+        <v>44362</v>
+      </c>
+      <c r="B69" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="8"/>
-      <c r="B70" s="7"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="8">
+        <v>44362</v>
+      </c>
+      <c r="B70" s="7">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="8"/>
-      <c r="B71" s="7"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="8">
+        <v>44362</v>
+      </c>
+      <c r="B71" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="8"/>
-      <c r="B72" s="7"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="8">
+        <v>44363</v>
+      </c>
+      <c r="B72" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="8"/>
-      <c r="B73" s="7"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B73" s="7">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="8"/>
-      <c r="B74" s="7"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B74" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="8"/>
-      <c r="B75" s="7"/>
-      <c r="D75" s="3"/>
+      <c r="A75" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B75" s="7">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="8"/>
-      <c r="B76" s="7"/>
-      <c r="D76" s="3"/>
+      <c r="A76" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B76" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="8"/>
-      <c r="B77" s="7"/>
-      <c r="D77" s="3"/>
+      <c r="A77" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B77" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="8"/>
-      <c r="B78" s="7"/>
-      <c r="D78" s="3"/>
+      <c r="A78" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B78" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="8"/>
@@ -6247,7 +6417,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>

--- a/documentation/timemanagment/neuner-timemanagment.xlsx
+++ b/documentation/timemanagment/neuner-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724F841A-B7E6-44D0-99EB-37196EFDEFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA93131-9F57-4884-977F-A6F1801F25BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Review Cube MR</t>
+  </si>
+  <si>
+    <t>Prepare Slides</t>
+  </si>
+  <si>
+    <t>Prepare Demo</t>
   </si>
 </sst>
 </file>
@@ -365,7 +371,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -680,13 +686,13 @@
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomRight" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -1781,19 +1787,46 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="8"/>
-      <c r="B79" s="7"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="8">
+        <v>44367</v>
+      </c>
+      <c r="B79" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="8"/>
-      <c r="B80" s="7"/>
-      <c r="D80" s="3"/>
+      <c r="A80" s="8">
+        <v>44368</v>
+      </c>
+      <c r="B80" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="8"/>
-      <c r="B81" s="7"/>
-      <c r="D81" s="3"/>
+      <c r="A81" s="8">
+        <v>44369</v>
+      </c>
+      <c r="B81" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="8"/>
@@ -6417,7 +6450,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>
